--- a/guide41_dashboad.xlsx
+++ b/guide41_dashboad.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD15F4D9-9243-4130-800A-8F817048E635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F82133-FA72-4A39-B996-0A538A60E51E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="p1" sheetId="4" r:id="rId1"/>
+    <sheet name="index" sheetId="5" r:id="rId1"/>
+    <sheet name="p1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>header1</t>
   </si>
@@ -132,6 +133,27 @@
       <t xml:space="preserve">ヒロダイ </t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _サイトの表示画面の設定</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;サイトの表示画面の設定&lt;/h3&gt;&lt;br&gt;
+【要編集】&lt;br &gt;</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -211,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +255,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,11 +573,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082697F7-4C19-4850-B803-71744936E3C0}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FDD9D-72C6-4385-979E-504ED293230E}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -732,7 +821,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/guide41_dashboad.xlsx
+++ b/guide41_dashboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F82133-FA72-4A39-B996-0A538A60E51E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78F2DD4-7D17-43E0-8AEB-843702F7E95E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082697F7-4C19-4850-B803-71744936E3C0}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FDD9D-72C6-4385-979E-504ED293230E}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -826,24 +826,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1092,6 +1074,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1102,17 +1102,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1131,6 +1120,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/guide41_dashboad.xlsx
+++ b/guide41_dashboad.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78F2DD4-7D17-43E0-8AEB-843702F7E95E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CD04E9-9603-4774-A0A1-91D1F2345B34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
     <sheet name="p1" sheetId="4" r:id="rId2"/>
+    <sheet name="p2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>header1</t>
   </si>
@@ -82,10 +83,6 @@
   </si>
   <si>
     <t>サイトの表示画面の設定</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="dashboad"&gt;&lt;/a&gt;ダッシュボードの構成&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -93,30 +90,6 @@
     <rPh sb="1" eb="4">
       <t>ヨウヘンシュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>【要編集】
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#dashboad"&gt;ダッシュボードの構成&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#language"&gt;言語を切り替える方法&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <rPh sb="1" eb="4">
-      <t>ヨウヘンシュウ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="language"&gt;&lt;/a&gt;言語を切り替える方法&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -154,6 +127,12 @@
     <t>&lt;h3&gt;サイトの表示画面の設定&lt;/h3&gt;&lt;br&gt;
 【要編集】&lt;br &gt;</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダッシュボードの構成</t>
+  </si>
+  <si>
+    <t>言語を切り替える方法</t>
   </si>
 </sst>
 </file>
@@ -599,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
@@ -607,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -617,12 +596,12 @@
     <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -637,10 +616,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FDD9D-72C6-4385-979E-504ED293230E}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="103.875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D5AA7F-EB0F-48FC-9AB1-F6F722AA3B2B}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -661,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -677,146 +755,122 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -826,6 +880,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1074,24 +1146,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1102,6 +1156,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1120,17 +1185,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/guide41_dashboad.xlsx
+++ b/guide41_dashboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CD04E9-9603-4774-A0A1-91D1F2345B34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A96E0D-A245-4407-B200-ADC7A63A0F37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -93,14 +93,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h4&gt;&lt;a name="language menu"&gt;&lt;/a&gt;言語メニューで選択&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="preferred language"&gt;&lt;/a&gt;優先言語の設定&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>広大moodle マニュアル guide41-dashboad</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
@@ -133,6 +125,14 @@
   </si>
   <si>
     <t>言語を切り替える方法</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="language menu"&gt;&lt;/a&gt;言語メニューで選択&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="preferred language"&gt;&lt;/a&gt;優先言語の設定&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
@@ -586,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -596,12 +596,12 @@
     <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -616,10 +616,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FDD9D-72C6-4385-979E-504ED293230E}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -656,28 +656,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
@@ -705,6 +706,9 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -715,10 +719,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D5AA7F-EB0F-48FC-9AB1-F6F722AA3B2B}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -739,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -755,95 +759,96 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>14</v>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
@@ -871,6 +876,9 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -880,24 +888,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1146,6 +1136,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1156,17 +1164,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1185,6 +1182,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/guide41_dashboad.xlsx
+++ b/guide41_dashboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A96E0D-A245-4407-B200-ADC7A63A0F37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101BB9A5-70F4-4036-89AD-9DB4D510BFF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -86,13 +86,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【要編集】</t>
-    <rPh sb="1" eb="4">
-      <t>ヨウヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>広大moodle マニュアル guide41-dashboad</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
@@ -101,9 +94,6 @@
   </si>
   <si>
     <t>index</t>
-  </si>
-  <si>
-    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
   </si>
   <si>
     <t>広大moodle 教職員向けマニュアル _サイトの表示画面の設定</t>
@@ -121,9 +111,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ダッシュボードの構成</t>
-  </si>
-  <si>
     <t>言語を切り替える方法</t>
   </si>
   <si>
@@ -132,6 +119,30 @@
   </si>
   <si>
     <t>&lt;h3&gt;&lt;a name="preferred language"&gt;&lt;/a&gt;優先言語の設定&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダッシュボードの構成【準備中】</t>
+    <rPh sb="11" eb="13">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現在作成中です。
+順次公開いたしますので、公開前のページについては過去のマニュアルを参照してください。
+■過去のマニュアル
+https://support.vle.hiroshima-u.ac.jp/files/public/hirodai-moodle-faculty-document-20230306.pdf</t>
+    <rPh sb="53" eb="55">
+      <t>カコ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -556,7 +567,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -578,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
@@ -586,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -596,12 +607,12 @@
     <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -618,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FDD9D-72C6-4385-979E-504ED293230E}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -640,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -656,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -667,10 +678,10 @@
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -721,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D5AA7F-EB0F-48FC-9AB1-F6F722AA3B2B}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -743,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -759,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -773,7 +784,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -800,7 +811,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -888,6 +899,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1136,34 +1174,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1180,23 +1210,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_dashboad.xlsx
+++ b/guide41_dashboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101BB9A5-70F4-4036-89AD-9DB4D510BFF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1FD326-B578-41BC-ACE0-60B46AB41665}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -44,10 +44,6 @@
     <t>fresta</t>
   </si>
   <si>
-    <t>画面左上に表示されている[日本語(ja)]右の▼をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>表示したい言語を選択します</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -57,10 +53,6 @@
   </si>
   <si>
     <t>優先言語を選択後、［変更を保存する］をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面右上の▼（ユーザメニュー）をクリックし、［プリファレンス］を選択し、［優先言語］をクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -143,6 +135,20 @@
     <rPh sb="53" eb="55">
       <t>カコ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）から[言語設定]をクリックします</t>
+    <rPh sb="12" eb="13">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ゲンゴセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）から［プリファレンス］を選択し、［優先言語］をクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -581,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -589,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
@@ -597,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -607,12 +613,12 @@
     <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -629,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FDD9D-72C6-4385-979E-504ED293230E}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -651,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -667,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -681,7 +687,7 @@
     <row r="7" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -732,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D5AA7F-EB0F-48FC-9AB1-F6F722AA3B2B}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -754,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -770,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -784,74 +790,74 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -899,33 +905,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1174,10 +1153,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1194,20 +1211,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41_dashboad.xlsx
+++ b/guide41_dashboad.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1FD326-B578-41BC-ACE0-60B46AB41665}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A44B9E-D1ED-435E-8FC1-AA2BFD5084DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
     <sheet name="p1" sheetId="4" r:id="rId2"/>
     <sheet name="p2" sheetId="6" r:id="rId3"/>
+    <sheet name="p3" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>header1</t>
   </si>
@@ -42,18 +43,6 @@
   </si>
   <si>
     <t>fresta</t>
-  </si>
-  <si>
-    <t>表示したい言語を選択します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>優先言語の▼をクリックし、リストを表示させ優先させたい言語を選択します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>優先言語を選択後、［変更を保存する］をクリックします</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>chartn</t>
@@ -103,9 +92,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>言語を切り替える方法</t>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="language menu"&gt;&lt;/a&gt;言語メニューで選択&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -149,6 +135,29 @@
   </si>
   <si>
     <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）から［プリファレンス］を選択し、［優先言語］をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常時英語でmoodleを利用したい</t>
+  </si>
+  <si>
+    <t>一時的に英語でmoodleを利用したい</t>
+  </si>
+  <si>
+    <t>優先言語の▼をクリックし、リストを表示させ優先させたい言語を選択します
+デフォルトでは、日本語（ja）が優先言語になっているので、English(en)を選択します</t>
+    <rPh sb="77" eb="79">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>［変更を保存する］をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示したい言語を選択します
+デフォルトでは、日本語（ja）になっているので、English(en)を選択します</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -587,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -595,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
@@ -603,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -613,12 +622,12 @@
     <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -636,7 +645,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -657,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -673,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -687,7 +696,7 @@
     <row r="7" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -736,10 +745,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D5AA7F-EB0F-48FC-9AB1-F6F722AA3B2B}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -760,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -776,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -790,18 +799,16 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
@@ -809,63 +816,177 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C59D0E-D294-443B-9256-20DE1AB6D1A5}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="103.875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
@@ -881,21 +1002,6 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -905,6 +1011,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1153,34 +1286,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1197,23 +1322,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_dashboad.xlsx
+++ b/guide41_dashboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A44B9E-D1ED-435E-8FC1-AA2BFD5084DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6E5F54-BE5E-4E97-8AC8-861F2DA35776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -92,14 +92,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="language menu"&gt;&lt;/a&gt;言語メニューで選択&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="preferred language"&gt;&lt;/a&gt;優先言語の設定&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -158,6 +150,17 @@
   <si>
     <t>表示したい言語を選択します
 デフォルトでは、日本語（ja）になっているので、English(en)を選択します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="preferred language"&gt;&lt;/a&gt;優先言語&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="language menu"&gt;&lt;/a&gt;言語設定&lt;/h3&gt;</t>
+    <rPh sb="34" eb="36">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -622,7 +625,7 @@
     <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -666,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -696,7 +699,7 @@
     <row r="7" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -747,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D5AA7F-EB0F-48FC-9AB1-F6F722AA3B2B}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -769,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -799,13 +802,13 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>5</v>
@@ -827,7 +830,7 @@
     <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>5</v>
@@ -839,7 +842,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -890,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C59D0E-D294-443B-9256-20DE1AB6D1A5}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -912,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -942,7 +945,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -950,7 +953,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>5</v>
@@ -962,7 +965,7 @@
     <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7"/>
     </row>
@@ -1011,15 +1014,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -1035,6 +1029,15 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1287,20 +1290,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
